--- a/docs/Оценка эффективности выборка.xlsx
+++ b/docs/Оценка эффективности выборка.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7752" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7752" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Повышенная насыщенность" sheetId="1" r:id="rId1"/>
     <sheet name="Прогноз" sheetId="4" r:id="rId2"/>
     <sheet name="Средняя насыщенность" sheetId="2" r:id="rId3"/>
     <sheet name="Лист2" sheetId="3" r:id="rId4"/>
+    <sheet name="Актуальность" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
   <si>
     <t>Кол-во узлов</t>
   </si>
@@ -68,11 +69,36 @@
   <si>
     <t>к-т эффективности</t>
   </si>
+  <si>
+    <t>Инфраструктура</t>
+  </si>
+  <si>
+    <t>Веб-ресурсы</t>
+  </si>
+  <si>
+    <t>Пользователи</t>
+  </si>
+  <si>
+    <t>Мобильные устройства</t>
+  </si>
+  <si>
+    <t>IoT</t>
+  </si>
+  <si>
+    <t>Банкоматы и POS-терминалы</t>
+  </si>
+  <si>
+    <t>К-т эфф</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="2">
+    <numFmt numFmtId="167" formatCode="0.000"/>
+    <numFmt numFmtId="168" formatCode="0.0"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -102,11 +128,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -177,7 +205,6 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="33"/>
-              <c:layout/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="1"/>
@@ -185,9 +212,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000008-25B1-4052-A215-C607CE7042F8}"/>
                 </c:ext>
@@ -195,7 +220,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="35"/>
-              <c:layout/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="1"/>
@@ -203,9 +227,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000B-25B1-4052-A215-C607CE7042F8}"/>
                 </c:ext>
@@ -522,7 +544,6 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="33"/>
-              <c:layout/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="1"/>
@@ -530,9 +551,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000A-25B1-4052-A215-C607CE7042F8}"/>
                 </c:ext>
@@ -1092,7 +1111,7 @@
                 </c:tx>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Повышенная насыщенность'!$A$2:$A$35</c15:sqref>
@@ -1209,7 +1228,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Повышенная насыщенность'!$G$2:$G$35</c15:sqref>
@@ -1325,7 +1344,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000007-25B1-4052-A215-C607CE7042F8}"/>
                   </c:ext>
@@ -3089,7 +3108,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Повышенная насыщенность'!$A$2:$A$35</c15:sqref>
@@ -3206,7 +3225,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Повышенная насыщенность'!$G$2:$G$35</c15:sqref>
@@ -3322,7 +3341,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                     <c15:filteredSeriesTitle>
                       <c15:tx>
@@ -4283,15 +4302,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="1"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
+          <c:tx>
+            <c:v>Оптимизированный</c:v>
+          </c:tx>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
@@ -4300,8 +4313,8 @@
               <c:idx val="20"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.18376068376068383"/>
-                  <c:y val="-7.870370370370379E-2"/>
+                  <c:x val="-0.12575757575757576"/>
+                  <c:y val="-7.4829931972789115E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:showLegendKey val="0"/>
@@ -4323,8 +4336,8 @@
               <c:idx val="21"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0"/>
-                  <c:y val="-8.7962962962962965E-2"/>
+                  <c:x val="-6.0606060606060606E-3"/>
+                  <c:y val="-0.11224489795918367"/>
                 </c:manualLayout>
               </c:layout>
               <c:showLegendKey val="0"/>
@@ -4452,7 +4465,7 @@
             <c:numRef>
               <c:f>Лист2!$F$14:$F$35</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>1.6000747680664E-2</c:v>
@@ -4525,13 +4538,6 @@
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-              <c15:filteredSeriesTitle>
-                <c15:tx>
-                  <c:v>Оптимизированный</c:v>
-                </c15:tx>
-              </c15:filteredSeriesTitle>
-            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-1037-4C17-9979-020D8FCDEF8A}"/>
             </c:ext>
@@ -4540,6 +4546,9 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="2"/>
+          <c:tx>
+            <c:v>Неоптимизированный</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -4555,7 +4564,12 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="20"/>
-              <c:layout/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.22796006065998295"/>
+                  <c:y val="-5.6410243122965817E-2"/>
+                </c:manualLayout>
+              </c:layout>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="1"/>
@@ -4699,7 +4713,7 @@
             <c:numRef>
               <c:f>Лист2!$G$14:$G$35</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>1.6000986099243102E-2</c:v>
@@ -4772,13 +4786,6 @@
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-              <c15:filteredSeriesTitle>
-                <c15:tx>
-                  <c:v>Неоптимизированный</c:v>
-                </c15:tx>
-              </c15:filteredSeriesTitle>
-            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-1037-4C17-9979-020D8FCDEF8A}"/>
             </c:ext>
@@ -4801,9 +4808,72 @@
               <c15:ser>
                 <c:idx val="2"/>
                 <c:order val="0"/>
+                <c:tx>
+                  <c:v>Оптимизированный</c:v>
+                </c:tx>
                 <c:marker>
                   <c:symbol val="none"/>
                 </c:marker>
+                <c:dLbls>
+                  <c:dLbl>
+                    <c:idx val="32"/>
+                    <c:layout>
+                      <c:manualLayout>
+                        <c:x val="-0.18376068376068383"/>
+                        <c:y val="-7.870370370370379E-2"/>
+                      </c:manualLayout>
+                    </c:layout>
+                    <c:showLegendKey val="0"/>
+                    <c:showVal val="1"/>
+                    <c:showCatName val="1"/>
+                    <c:showSerName val="0"/>
+                    <c:showPercent val="0"/>
+                    <c:showBubbleSize val="0"/>
+                    <c:extLst>
+                      <c:ext uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                        <c15:layout/>
+                      </c:ext>
+                    </c:extLst>
+                  </c:dLbl>
+                  <c:dLbl>
+                    <c:idx val="33"/>
+                    <c:layout>
+                      <c:manualLayout>
+                        <c:x val="0"/>
+                        <c:y val="-8.7962962962962965E-2"/>
+                      </c:manualLayout>
+                    </c:layout>
+                    <c:showLegendKey val="0"/>
+                    <c:showVal val="1"/>
+                    <c:showCatName val="1"/>
+                    <c:showSerName val="0"/>
+                    <c:showPercent val="0"/>
+                    <c:showBubbleSize val="0"/>
+                    <c:extLst>
+                      <c:ext uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                        <c15:layout/>
+                      </c:ext>
+                    </c:extLst>
+                  </c:dLbl>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="0"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="0"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:extLst>
+                    <c:ext uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                      <c15:showLeaderLines val="1"/>
+                    </c:ext>
+                  </c:extLst>
+                </c:dLbls>
                 <c:cat>
                   <c:numRef>
                     <c:extLst>
@@ -5064,13 +5134,6 @@
                 </c:val>
                 <c:smooth val="0"/>
                 <c:extLst>
-                  <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                    <c15:filteredSeriesTitle>
-                      <c15:tx>
-                        <c:v>Оптимизированный</c:v>
-                      </c15:tx>
-                    </c15:filteredSeriesTitle>
-                  </c:ext>
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000000-1037-4C17-9979-020D8FCDEF8A}"/>
                   </c:ext>
@@ -5079,6 +5142,1070 @@
             </c15:filteredLineSeries>
           </c:ext>
         </c:extLst>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2102087823"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="1"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" b="1"/>
+                  <a:t>Количество дуг графа атак</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2102091983"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2102091983"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Время на поиск защитной меры, с</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2102087823"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.070327747493102E-2"/>
+          <c:y val="5.0925925925925923E-2"/>
+          <c:w val="0.72844202167036809"/>
+          <c:h val="0.78193132108486441"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Оптимизированный</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист2!$A$14:$A$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>250</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист2!$F$14:$F$35</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>1.6000747680664E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.7005376815795898E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.177010297775268</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.36502099037170399</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.448025703430175</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.85604882240295399</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.4320816993713299</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.17612433433532</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.0961771011352499</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.6042060852050701</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.6142640113830504</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11.408652544021599</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>18.966084957122799</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>25.653467416763299</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>49.739845037460299</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>57.569293022155698</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>66.666813373565603</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>78.216473817825303</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>91.414228439330998</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>99.300679683685303</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>109.172244310379</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>227.558015584945</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000011-5A88-4E3F-B0D0-25F7DB9F782E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Неоптимизированный</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист2!$A$14:$A$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>250</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист2!$G$14:$G$35</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>1.6000986099243102E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.14600801467895499</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.52002954483032204</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2400708198547301</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.9151093959808301</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.7962172031402499</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.2134125232696498</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14.244814872741699</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>23.317333698272702</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>30.588749647140499</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43.461485862731898</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>109.215246915817</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>200.61947464942901</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>277.368864536285</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>565.16932559013298</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>689.09041380882195</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>870.56379342079094</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1111.3805673122399</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1411.1117110252301</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1612.7052414417201</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2232.4866909980701</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5668.2402048110898</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000012-5A88-4E3F-B0D0-25F7DB9F782E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Оптимизированный</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="20"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.18376068376068383"/>
+                  <c:y val="-7.870370370370379E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000A-5A88-4E3F-B0D0-25F7DB9F782E}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="21"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0"/>
+                  <c:y val="-8.7962962962962965E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000B-5A88-4E3F-B0D0-25F7DB9F782E}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <a:prstGeom prst="wedgeRectCallout">
+                    <a:avLst/>
+                  </a:prstGeom>
+                </c15:spPr>
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист2!$A$14:$A$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>250</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист2!$F$14:$F$35</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>1.6000747680664E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.7005376815795898E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.177010297775268</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.36502099037170399</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.448025703430175</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.85604882240295399</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.4320816993713299</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.17612433433532</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.0961771011352499</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.6042060852050701</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.6142640113830504</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11.408652544021599</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>18.966084957122799</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>25.653467416763299</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>49.739845037460299</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>57.569293022155698</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>66.666813373565603</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>78.216473817825303</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>91.414228439330998</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>99.300679683685303</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>109.172244310379</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>227.558015584945</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-5A88-4E3F-B0D0-25F7DB9F782E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Неоптимизированный</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="20"/>
+              <c:layout/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000E-5A88-4E3F-B0D0-25F7DB9F782E}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="21"/>
+              <c:layout/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000F-5A88-4E3F-B0D0-25F7DB9F782E}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <a:prstGeom prst="wedgeRectCallout">
+                    <a:avLst/>
+                  </a:prstGeom>
+                </c15:spPr>
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист2!$A$14:$A$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>250</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист2!$G$14:$G$35</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>1.6000986099243102E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.14600801467895499</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.52002954483032204</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2400708198547301</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.9151093959808301</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.7962172031402499</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.2134125232696498</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14.244814872741699</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>23.317333698272702</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>30.588749647140499</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43.461485862731898</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>109.215246915817</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>200.61947464942901</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>277.368864536285</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>565.16932559013298</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>689.09041380882195</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>870.56379342079094</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1111.3805673122399</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1411.1117110252301</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1612.7052414417201</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2232.4866909980701</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5668.2402048110898</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000010-5A88-4E3F-B0D0-25F7DB9F782E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="2102087823"/>
+        <c:axId val="2102091983"/>
+        <c:extLst/>
       </c:lineChart>
       <c:catAx>
         <c:axId val="2102087823"/>
@@ -5166,7 +6293,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -5230,6 +6357,1122 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Кривая эффективности предложенных</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" baseline="0"/>
+              <a:t> оптимизаций</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Эффективность</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист2!$C$14:$C$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>264</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>349</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>472</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>701</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>811</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>944</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1201</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2975</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4524</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5380</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10530</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>11052</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>11836</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>12824</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>13913</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>14038</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>14400</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>24890</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист2!$H$14:$H$35</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>1.0000149004648946</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6781493284958351</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.9378491046354305</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.3972589318547284</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.274552511872348</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.4345802526591385</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.0370118733004325</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.5459563352995014</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.5310077352239073</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.4869591038937706</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.4189421661863317</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.5730189428065593</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10.577801117256172</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10.812139350606378</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>11.362506762224331</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>11.96975640370681</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>13.058428164889348</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>14.209034402404363</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>15.436455955669357</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>16.240626414430082</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20.449214954774249</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>24.908989429533833</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-23AD-4C55-A60B-AFDC49B48898}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="77349680"/>
+        <c:axId val="77326800"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="77349680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" b="1"/>
+                  <a:t>Количество дуг графа атак</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="77326800"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="77326800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" b="1"/>
+                  <a:t>Коэффициент эффективности</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" b="1"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="77349680"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Объекты атак</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.25900678745801936"/>
+          <c:y val="0.29057472631785047"/>
+          <c:w val="0.46630559788897347"/>
+          <c:h val="0.65520559930008737"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:doughnutChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:explosion val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-9914-414A-ACCF-39DBF9160426}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-9914-414A-ACCF-39DBF9160426}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-9914-414A-ACCF-39DBF9160426}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-9914-414A-ACCF-39DBF9160426}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000006-9914-414A-ACCF-39DBF9160426}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-9914-414A-ACCF-39DBF9160426}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.15161290322580628"/>
+                  <c:y val="-5.7430993930291233E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-9914-414A-ACCF-39DBF9160426}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.14444444444444443"/>
+                  <c:y val="2.797444228819828E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-9914-414A-ACCF-39DBF9160426}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.17686796206925748"/>
+                  <c:y val="-4.4066729619137553E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-9914-414A-ACCF-39DBF9160426}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.13978494623655918"/>
+                  <c:y val="-0.13888876496670211"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-9914-414A-ACCF-39DBF9160426}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.824372759856631E-2"/>
+                  <c:y val="-0.17311929493232608"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-9914-414A-ACCF-39DBF9160426}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="6.1827956989247229E-2"/>
+                  <c:y val="-0.16637817581584172"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-9914-414A-ACCF-39DBF9160426}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="25000"/>
+                    <a:lumOff val="75000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <a:prstGeom prst="wedgeRectCallout">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c15:spPr>
+                <c15:layout/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Актуальность!$A$1:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Инфраструктура</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Веб-ресурсы</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Пользователи</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Мобильные устройства</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>IoT</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Банкоматы и POS-терминалы</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Актуальность!$B$1:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9914-414A-ACCF-39DBF9160426}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="0"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+        <c:holeSize val="75"/>
+      </c:doughnutChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -5271,6 +7514,86 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -6342,6 +8665,1041 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -6482,16 +9840,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>122192</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>13335</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6499,6 +9857,103 @@
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>438397</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>29689</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>285997</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>29690</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Диаграмма 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>333499</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>145966</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>568778</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>180108</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Диаграмма 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>129540</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>179070</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>312420</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -6832,7 +10287,7 @@
         <v>5</v>
       </c>
       <c r="D2">
-        <f>(C2*2/(A2*(A2-1)))</f>
+        <f t="shared" ref="D2:D39" si="0">(C2*2/(A2*(A2-1)))</f>
         <v>1.6666666666666667</v>
       </c>
       <c r="E2">
@@ -6845,7 +10300,7 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <f>(G2/(F2+E2))</f>
+        <f t="shared" ref="H2:H39" si="1">(G2/(F2+E2))</f>
         <v>0</v>
       </c>
     </row>
@@ -6860,7 +10315,7 @@
         <v>32</v>
       </c>
       <c r="D3">
-        <f>(C3*2/(A3*(A3-1)))</f>
+        <f t="shared" si="0"/>
         <v>0.71111111111111114</v>
       </c>
       <c r="E3">
@@ -6873,7 +10328,7 @@
         <v>1.6000986099243102E-2</v>
       </c>
       <c r="H3">
-        <f>(G3/(F3+E3))</f>
+        <f t="shared" si="1"/>
         <v>0.94118389498927169</v>
       </c>
     </row>
@@ -6888,7 +10343,7 @@
         <v>84</v>
       </c>
       <c r="D4">
-        <f>(C4*2/(A4*(A4-1)))</f>
+        <f t="shared" si="0"/>
         <v>0.8</v>
       </c>
       <c r="E4">
@@ -6901,7 +10356,7 @@
         <v>6.8004131317138602E-2</v>
       </c>
       <c r="H4">
-        <f>(G4/(F4+E4))</f>
+        <f t="shared" si="1"/>
         <v>1.446817792161021</v>
       </c>
     </row>
@@ -6916,7 +10371,7 @@
         <v>109</v>
       </c>
       <c r="D5">
-        <f>(C5*2/(A5*(A5-1)))</f>
+        <f t="shared" si="0"/>
         <v>0.5736842105263158</v>
       </c>
       <c r="E5">
@@ -6929,7 +10384,7 @@
         <v>0.14600801467895499</v>
       </c>
       <c r="H5">
-        <f>(G5/(F5+E5))</f>
+        <f t="shared" si="1"/>
         <v>1.6222139810865928</v>
       </c>
     </row>
@@ -6944,7 +10399,7 @@
         <v>98</v>
       </c>
       <c r="D6">
-        <f>(C6*2/(A6*(A6-1)))</f>
+        <f t="shared" si="0"/>
         <v>0.32666666666666666</v>
       </c>
       <c r="E6">
@@ -6957,7 +10412,7 @@
         <v>0.25401425361633301</v>
       </c>
       <c r="H6">
-        <f>(G6/(F6+E6))</f>
+        <f t="shared" si="1"/>
         <v>1.9843714495382787</v>
       </c>
     </row>
@@ -6972,7 +10427,7 @@
         <v>127</v>
       </c>
       <c r="D7">
-        <f>(C7*2/(A7*(A7-1)))</f>
+        <f t="shared" si="0"/>
         <v>0.29195402298850576</v>
       </c>
       <c r="E7">
@@ -6985,7 +10440,7 @@
         <v>0.52002954483032204</v>
       </c>
       <c r="H7">
-        <f>(G7/(F7+E7))</f>
+        <f t="shared" si="1"/>
         <v>2.8729287735178128</v>
       </c>
     </row>
@@ -7000,7 +10455,7 @@
         <v>310</v>
       </c>
       <c r="D8">
-        <f>(C8*2/(A8*(A8-1)))</f>
+        <f t="shared" si="0"/>
         <v>0.52100840336134457</v>
       </c>
       <c r="E8">
@@ -7013,7 +10468,7 @@
         <v>1.02805852890014</v>
       </c>
       <c r="H8">
-        <f>(G8/(F8+E8))</f>
+        <f t="shared" si="1"/>
         <v>2.8164367420439547</v>
       </c>
     </row>
@@ -7028,7 +10483,7 @@
         <v>230</v>
       </c>
       <c r="D9">
-        <f>(C9*2/(A9*(A9-1)))</f>
+        <f t="shared" si="0"/>
         <v>0.29487179487179488</v>
       </c>
       <c r="E9">
@@ -7041,7 +10496,7 @@
         <v>1.2400708198547301</v>
       </c>
       <c r="H9">
-        <f>(G9/(F9+E9))</f>
+        <f t="shared" si="1"/>
         <v>3.3243941131278421</v>
       </c>
     </row>
@@ -7056,7 +10511,7 @@
         <v>239</v>
       </c>
       <c r="D10">
-        <f>(C10*2/(A10*(A10-1)))</f>
+        <f t="shared" si="0"/>
         <v>0.24141414141414141</v>
       </c>
       <c r="E10">
@@ -7069,7 +10524,7 @@
         <v>1.44308233261108</v>
       </c>
       <c r="H10">
-        <f>(G10/(F10+E10))</f>
+        <f t="shared" si="1"/>
         <v>4.0647883937751343</v>
       </c>
     </row>
@@ -7084,7 +10539,7 @@
         <v>264</v>
       </c>
       <c r="D11">
-        <f>(C11*2/(A11*(A11-1)))</f>
+        <f t="shared" si="0"/>
         <v>0.21551020408163266</v>
       </c>
       <c r="E11">
@@ -7097,7 +10552,7 @@
         <v>1.9151093959808301</v>
       </c>
       <c r="H11">
-        <f>(G11/(F11+E11))</f>
+        <f t="shared" si="1"/>
         <v>4.1721100692516506</v>
       </c>
     </row>
@@ -7112,7 +10567,7 @@
         <v>315</v>
       </c>
       <c r="D12">
-        <f>(C12*2/(A12*(A12-1)))</f>
+        <f t="shared" si="0"/>
         <v>0.21212121212121213</v>
       </c>
       <c r="E12">
@@ -7125,7 +10580,7 @@
         <v>2.8621637821197501</v>
       </c>
       <c r="H12">
-        <f>(G12/(F12+E12))</f>
+        <f t="shared" si="1"/>
         <v>4.0827394464991738</v>
       </c>
     </row>
@@ -7140,7 +10595,7 @@
         <v>349</v>
       </c>
       <c r="D13">
-        <f>(C13*2/(A13*(A13-1)))</f>
+        <f t="shared" si="0"/>
         <v>0.19717514124293786</v>
       </c>
       <c r="E13">
@@ -7153,7 +10608,7 @@
         <v>3.7962172031402499</v>
       </c>
       <c r="H13">
-        <f>(G13/(F13+E13))</f>
+        <f t="shared" si="1"/>
         <v>4.3682390326192158</v>
       </c>
     </row>
@@ -7168,7 +10623,7 @@
         <v>441</v>
       </c>
       <c r="D14">
-        <f>(C14*2/(A14*(A14-1)))</f>
+        <f t="shared" si="0"/>
         <v>0.21201923076923077</v>
       </c>
       <c r="E14">
@@ -7181,7 +10636,7 @@
         <v>5.6483230590820304</v>
       </c>
       <c r="H14">
-        <f>(G14/(F14+E14))</f>
+        <f t="shared" si="1"/>
         <v>4.5256408517551385</v>
       </c>
     </row>
@@ -7196,7 +10651,7 @@
         <v>472</v>
       </c>
       <c r="D15">
-        <f>(C15*2/(A15*(A15-1)))</f>
+        <f t="shared" si="0"/>
         <v>0.19544513457556936</v>
       </c>
       <c r="E15">
@@ -7209,7 +10664,7 @@
         <v>7.2134125232696498</v>
       </c>
       <c r="H15">
-        <f>(G15/(F15+E15))</f>
+        <f t="shared" si="1"/>
         <v>4.9847961242309138</v>
       </c>
     </row>
@@ -7224,7 +10679,7 @@
         <v>661</v>
       </c>
       <c r="D16">
-        <f>(C16*2/(A16*(A16-1)))</f>
+        <f t="shared" si="0"/>
         <v>0.23819819819819821</v>
       </c>
       <c r="E16">
@@ -7237,7 +10692,7 @@
         <v>10.7326138019561</v>
       </c>
       <c r="H16">
-        <f>(G16/(F16+E16))</f>
+        <f t="shared" si="1"/>
         <v>5.8644811142239401</v>
       </c>
     </row>
@@ -7252,7 +10707,7 @@
         <v>701</v>
       </c>
       <c r="D17">
-        <f>(C17*2/(A17*(A17-1)))</f>
+        <f t="shared" si="0"/>
         <v>0.22183544303797467</v>
       </c>
       <c r="E17">
@@ -7265,7 +10720,7 @@
         <v>14.244814872741699</v>
       </c>
       <c r="H17">
-        <f>(G17/(F17+E17))</f>
+        <f t="shared" si="1"/>
         <v>6.4804371813245609</v>
       </c>
     </row>
@@ -7280,7 +10735,7 @@
         <v>768</v>
       </c>
       <c r="D18">
-        <f>(C18*2/(A18*(A18-1)))</f>
+        <f t="shared" si="0"/>
         <v>0.21512605042016808</v>
       </c>
       <c r="E18">
@@ -7293,7 +10748,7 @@
         <v>16.587948799133301</v>
       </c>
       <c r="H18">
-        <f>(G18/(F18+E18))</f>
+        <f t="shared" si="1"/>
         <v>6.6641226587296751</v>
       </c>
     </row>
@@ -7308,7 +10763,7 @@
         <v>811</v>
       </c>
       <c r="D19">
-        <f>(C19*2/(A19*(A19-1)))</f>
+        <f t="shared" si="0"/>
         <v>0.20249687890137327</v>
       </c>
       <c r="E19">
@@ -7321,7 +10776,7 @@
         <v>23.317333698272702</v>
       </c>
       <c r="H19">
-        <f>(G19/(F19+E19))</f>
+        <f t="shared" si="1"/>
         <v>7.4183898117124487</v>
       </c>
     </row>
@@ -7336,7 +10791,7 @@
         <v>888</v>
       </c>
       <c r="D20">
-        <f>(C20*2/(A20*(A20-1)))</f>
+        <f t="shared" si="0"/>
         <v>0.19888017917133258</v>
       </c>
       <c r="E20">
@@ -7349,7 +10804,7 @@
         <v>30.561747789382899</v>
       </c>
       <c r="H20">
-        <f>(G20/(F20+E20))</f>
+        <f t="shared" si="1"/>
         <v>7.5141377288785511</v>
       </c>
     </row>
@@ -7364,7 +10819,7 @@
         <v>944</v>
       </c>
       <c r="D21">
-        <f>(C21*2/(A21*(A21-1)))</f>
+        <f t="shared" si="0"/>
         <v>0.19070707070707071</v>
       </c>
       <c r="E21">
@@ -7377,7 +10832,7 @@
         <v>30.588749647140499</v>
       </c>
       <c r="H21">
-        <f>(G21/(F21+E21))</f>
+        <f t="shared" si="1"/>
         <v>8.4192128135208915</v>
       </c>
     </row>
@@ -7392,7 +10847,7 @@
         <v>1152</v>
       </c>
       <c r="D22">
-        <f>(C22*2/(A22*(A22-1)))</f>
+        <f t="shared" si="0"/>
         <v>0.21098901098901099</v>
       </c>
       <c r="E22">
@@ -7405,7 +10860,7 @@
         <v>47.514717817306497</v>
       </c>
       <c r="H22">
-        <f>(G22/(F22+E22))</f>
+        <f t="shared" si="1"/>
         <v>8.611926711633604</v>
       </c>
     </row>
@@ -7420,7 +10875,7 @@
         <v>1201</v>
       </c>
       <c r="D23">
-        <f>(C23*2/(A23*(A23-1)))</f>
+        <f t="shared" si="0"/>
         <v>0.20033361134278566</v>
       </c>
       <c r="E23">
@@ -7433,7 +10888,7 @@
         <v>43.461485862731898</v>
       </c>
       <c r="H23">
-        <f>(G23/(F23+E23))</f>
+        <f t="shared" si="1"/>
         <v>9.3480321514895568</v>
       </c>
     </row>
@@ -7448,7 +10903,7 @@
         <v>2846</v>
       </c>
       <c r="D24">
-        <f>(C24*2/(A24*(A24-1)))</f>
+        <f t="shared" si="0"/>
         <v>0.43417238749046527</v>
       </c>
       <c r="E24">
@@ -7461,7 +10916,7 @@
         <v>93.566351890563894</v>
       </c>
       <c r="H24">
-        <f>(G24/(F24+E24))</f>
+        <f t="shared" si="1"/>
         <v>8.918215876533397</v>
       </c>
     </row>
@@ -7476,7 +10931,7 @@
         <v>2975</v>
       </c>
       <c r="D25">
-        <f>(C25*2/(A25*(A25-1)))</f>
+        <f t="shared" si="0"/>
         <v>0.41666666666666669</v>
       </c>
       <c r="E25">
@@ -7489,7 +10944,7 @@
         <v>109.215246915817</v>
       </c>
       <c r="H25">
-        <f>(G25/(F25+E25))</f>
+        <f t="shared" si="1"/>
         <v>9.4881842905433231</v>
       </c>
     </row>
@@ -7504,7 +10959,7 @@
         <v>4524</v>
       </c>
       <c r="D26">
-        <f>(C26*2/(A26*(A26-1)))</f>
+        <f t="shared" si="0"/>
         <v>0.53953488372093028</v>
       </c>
       <c r="E26">
@@ -7517,7 +10972,7 @@
         <v>200.61947464942901</v>
       </c>
       <c r="H26">
-        <f>(G26/(F26+E26))</f>
+        <f t="shared" si="1"/>
         <v>10.49150137695964</v>
       </c>
     </row>
@@ -7532,7 +10987,7 @@
         <v>5380</v>
       </c>
       <c r="D27">
-        <f>(C27*2/(A27*(A27-1)))</f>
+        <f t="shared" si="0"/>
         <v>0.55292908530318607</v>
       </c>
       <c r="E27">
@@ -7545,7 +11000,7 @@
         <v>277.368864536285</v>
       </c>
       <c r="H27">
-        <f>(G27/(F27+E27))</f>
+        <f t="shared" si="1"/>
         <v>10.746367532278551</v>
       </c>
     </row>
@@ -7560,7 +11015,7 @@
         <v>10530</v>
       </c>
       <c r="D28">
-        <f>(C28*2/(A28*(A28-1)))</f>
+        <f t="shared" si="0"/>
         <v>0.94228187919463091</v>
       </c>
       <c r="E28">
@@ -7573,7 +11028,7 @@
         <v>565.16932559013298</v>
       </c>
       <c r="H28">
-        <f>(G28/(F28+E28))</f>
+        <f t="shared" si="1"/>
         <v>11.298220684591366</v>
       </c>
     </row>
@@ -7588,7 +11043,7 @@
         <v>11052</v>
       </c>
       <c r="D29">
-        <f>(C29*2/(A29*(A29-1)))</f>
+        <f t="shared" si="0"/>
         <v>0.86886792452830186</v>
       </c>
       <c r="E29">
@@ -7601,7 +11056,7 @@
         <v>689.09041380882195</v>
       </c>
       <c r="H29">
-        <f>(G29/(F29+E29))</f>
+        <f t="shared" si="1"/>
         <v>11.907288966185241</v>
       </c>
     </row>
@@ -7616,7 +11071,7 @@
         <v>11836</v>
       </c>
       <c r="D30">
-        <f>(C30*2/(A30*(A30-1)))</f>
+        <f t="shared" si="0"/>
         <v>0.82394709363035157</v>
       </c>
       <c r="E30">
@@ -7629,7 +11084,7 @@
         <v>870.56379342079094</v>
       </c>
       <c r="H30">
-        <f>(G30/(F30+E30))</f>
+        <f t="shared" si="1"/>
         <v>12.988287545804553</v>
       </c>
     </row>
@@ -7644,7 +11099,7 @@
         <v>12824</v>
       </c>
       <c r="D31">
-        <f>(C31*2/(A31*(A31-1)))</f>
+        <f t="shared" si="0"/>
         <v>0.7960273122284296</v>
       </c>
       <c r="E31">
@@ -7657,7 +11112,7 @@
         <v>1111.3805673122399</v>
       </c>
       <c r="H31">
-        <f>(G31/(F31+E31))</f>
+        <f t="shared" si="1"/>
         <v>14.138173579452046</v>
       </c>
     </row>
@@ -7672,7 +11127,7 @@
         <v>13913</v>
       </c>
       <c r="D32">
-        <f>(C32*2/(A32*(A32-1)))</f>
+        <f t="shared" si="0"/>
         <v>0.77488164856585906</v>
       </c>
       <c r="E32">
@@ -7685,7 +11140,7 @@
         <v>1411.1117110252301</v>
       </c>
       <c r="H32">
-        <f>(G32/(F32+E32))</f>
+        <f t="shared" si="1"/>
         <v>15.369870924310257</v>
       </c>
     </row>
@@ -7700,7 +11155,7 @@
         <v>14038</v>
       </c>
       <c r="D33">
-        <f>(C33*2/(A33*(A33-1)))</f>
+        <f t="shared" si="0"/>
         <v>0.70542713567839199</v>
       </c>
       <c r="E33">
@@ -7713,7 +11168,7 @@
         <v>1612.7052414417201</v>
       </c>
       <c r="H33">
-        <f>(G33/(F33+E33))</f>
+        <f t="shared" si="1"/>
         <v>16.170274808771687</v>
       </c>
     </row>
@@ -7728,7 +11183,7 @@
         <v>14400</v>
       </c>
       <c r="D34">
-        <f>(C34*2/(A34*(A34-1)))</f>
+        <f t="shared" si="0"/>
         <v>0.65618591934381409</v>
       </c>
       <c r="E34">
@@ -7741,7 +11196,7 @@
         <v>2232.4866909980701</v>
       </c>
       <c r="H34">
-        <f>(G34/(F34+E34))</f>
+        <f t="shared" si="1"/>
         <v>20.364894487011018</v>
       </c>
     </row>
@@ -7756,7 +11211,7 @@
         <v>24890</v>
       </c>
       <c r="D35">
-        <f>(C35*2/(A35*(A35-1)))</f>
+        <f t="shared" si="0"/>
         <v>0.79967871485943776</v>
       </c>
       <c r="E35">
@@ -7769,7 +11224,7 @@
         <v>5668.2402048110898</v>
       </c>
       <c r="H35">
-        <f>(G35/(F35+E35))</f>
+        <f t="shared" si="1"/>
         <v>24.815201087004255</v>
       </c>
     </row>
@@ -7784,7 +11239,7 @@
         <v>48251</v>
       </c>
       <c r="D36">
-        <f>(C36*2/(A36*(A36-1)))</f>
+        <f t="shared" si="0"/>
         <v>0.79002865329512895</v>
       </c>
       <c r="E36">
@@ -7797,7 +11252,7 @@
         <v>-1</v>
       </c>
       <c r="H36">
-        <f>(G36/(F36+E36))</f>
+        <f t="shared" si="1"/>
         <v>-1.625484509643069E-3</v>
       </c>
     </row>
@@ -7812,7 +11267,7 @@
         <v>76735</v>
       </c>
       <c r="D37">
-        <f>(C37*2/(A37*(A37-1)))</f>
+        <f t="shared" si="0"/>
         <v>0.61511022044088182</v>
       </c>
       <c r="E37">
@@ -7825,7 +11280,7 @@
         <v>-1</v>
       </c>
       <c r="H37">
-        <f>(G37/(F37+E37))</f>
+        <f t="shared" si="1"/>
         <v>-6.5370521908614785E-4</v>
       </c>
     </row>
@@ -7840,7 +11295,7 @@
         <v>152491</v>
       </c>
       <c r="D38">
-        <f>(C38*2/(A38*(A38-1)))</f>
+        <f t="shared" si="0"/>
         <v>0.72296313855635885</v>
       </c>
       <c r="E38">
@@ -7853,7 +11308,7 @@
         <v>-1</v>
       </c>
       <c r="H38">
-        <f>(G38/(F38+E38))</f>
+        <f t="shared" si="1"/>
         <v>-2.3329066279144904E-4</v>
       </c>
     </row>
@@ -7868,7 +11323,7 @@
         <v>169022</v>
       </c>
       <c r="D39">
-        <f>(C39*2/(A39*(A39-1)))</f>
+        <f t="shared" si="0"/>
         <v>0.52885481852315397</v>
       </c>
       <c r="E39">
@@ -7881,7 +11336,7 @@
         <v>-1</v>
       </c>
       <c r="H39">
-        <f>(G39/(F39+E39))</f>
+        <f t="shared" si="1"/>
         <v>-1.5940167687574373E-4</v>
       </c>
     </row>
@@ -7899,8 +11354,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7911,7 +11366,7 @@
     <col min="8" max="8" width="15.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -7970,23 +11425,23 @@
         <v>3.3972589318547284</v>
       </c>
       <c r="D3">
-        <f>(A3/A2)</f>
+        <f t="shared" ref="D3:D20" si="1">(A3/A2)</f>
         <v>2.0621455076875477</v>
       </c>
       <c r="E3">
-        <f>(B3/B2)</f>
+        <f t="shared" ref="E3:E20" si="2">(B3/B2)</f>
         <v>2.3846160899557098</v>
       </c>
       <c r="G3">
-        <f>(G2*$D$35)</f>
+        <f t="shared" ref="G3:G34" si="3">(G2*$D$35)</f>
         <v>0.24715611223924075</v>
       </c>
       <c r="H3">
-        <f>(H2*$E$35)</f>
+        <f t="shared" ref="H3:H34" si="4">(H2*$E$35)</f>
         <v>0.80691706631468629</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I34" si="1">(H3/G3)</f>
+        <f t="shared" ref="I3:I34" si="5">(H3/G3)</f>
         <v>3.2648072467397098</v>
       </c>
     </row>
@@ -8002,23 +11457,23 @@
         <v>4.274552511872348</v>
       </c>
       <c r="D4">
-        <f>(A4/A3)</f>
+        <f t="shared" si="1"/>
         <v>1.2273970956408469</v>
       </c>
       <c r="E4">
-        <f>(B4/B3)</f>
+        <f t="shared" si="2"/>
         <v>1.5443548588661882</v>
       </c>
       <c r="G4">
-        <f>(G3*$D$35)</f>
+        <f t="shared" si="3"/>
         <v>0.34509937887778169</v>
       </c>
       <c r="H4">
-        <f>(H3*$E$35)</f>
+        <f t="shared" si="4"/>
         <v>1.252073383873505</v>
       </c>
       <c r="I4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>3.6281531075051041</v>
       </c>
     </row>
@@ -8034,23 +11489,23 @@
         <v>4.4345802526591385</v>
       </c>
       <c r="D5">
-        <f>(A5/A4)</f>
+        <f t="shared" si="1"/>
         <v>1.9107136395275357</v>
       </c>
       <c r="E5">
-        <f>(B5/B4)</f>
+        <f t="shared" si="2"/>
         <v>1.9822456153717547</v>
       </c>
       <c r="G5">
-        <f>(G4*$D$35)</f>
+        <f t="shared" si="3"/>
         <v>0.48185569931020439</v>
       </c>
       <c r="H5">
-        <f>(H4*$E$35)</f>
+        <f t="shared" si="4"/>
         <v>1.9428115032494222</v>
       </c>
       <c r="I5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>4.0319363370208841</v>
       </c>
     </row>
@@ -8066,23 +11521,23 @@
         <v>5.0370118733004325</v>
       </c>
       <c r="D6">
-        <f>(A6/A5)</f>
+        <f t="shared" si="1"/>
         <v>1.6728972248935929</v>
       </c>
       <c r="E6">
-        <f>(B6/B5)</f>
+        <f t="shared" si="2"/>
         <v>1.9001580092157737</v>
       </c>
       <c r="G6">
-        <f>(G5*$D$35)</f>
+        <f t="shared" si="3"/>
         <v>0.67280594857273068</v>
       </c>
       <c r="H6">
-        <f>(H5*$E$35)</f>
+        <f t="shared" si="4"/>
         <v>3.0146128699590768</v>
       </c>
       <c r="I6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>4.4806572777101357</v>
       </c>
     </row>
@@ -8098,23 +11553,23 @@
         <v>6.5459563352995014</v>
       </c>
       <c r="D7">
-        <f>(A7/A6)</f>
+        <f t="shared" si="1"/>
         <v>1.519553203766669</v>
       </c>
       <c r="E7">
-        <f>(B7/B6)</f>
+        <f t="shared" si="2"/>
         <v>1.9747678129858155</v>
       </c>
       <c r="G7">
-        <f>(G6*$D$35)</f>
+        <f t="shared" si="3"/>
         <v>0.93942614995083384</v>
       </c>
       <c r="H7">
-        <f>(H6*$E$35)</f>
+        <f t="shared" si="4"/>
         <v>4.6777007138999727</v>
       </c>
       <c r="I7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>4.9793171226336277</v>
       </c>
     </row>
@@ -8130,23 +11585,23 @@
         <v>7.5310077352239073</v>
       </c>
       <c r="D8">
-        <f>(A8/A7)</f>
+        <f t="shared" si="1"/>
         <v>1.4227942090822456</v>
       </c>
       <c r="E8">
-        <f>(B8/B7)</f>
+        <f t="shared" si="2"/>
         <v>1.6368997355586423</v>
       </c>
       <c r="G8">
-        <f>(G7*$D$35)</f>
+        <f t="shared" si="3"/>
         <v>1.3117028663072907</v>
       </c>
       <c r="H8">
-        <f>(H7*$E$35)</f>
+        <f t="shared" si="4"/>
         <v>7.2582732552048537</v>
       </c>
       <c r="I8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>5.5334736559952509</v>
       </c>
     </row>
@@ -8162,23 +11617,23 @@
         <v>8.4869591038937706</v>
       </c>
       <c r="D9">
-        <f>(A9/A8)</f>
+        <f t="shared" si="1"/>
         <v>1.1640826630632806</v>
       </c>
       <c r="E9">
-        <f>(B9/B8)</f>
+        <f t="shared" si="2"/>
         <v>1.3118459444360249</v>
       </c>
       <c r="G9">
-        <f>(G8*$D$35)</f>
+        <f t="shared" si="3"/>
         <v>1.8315057650554121</v>
       </c>
       <c r="H9">
-        <f>(H8*$E$35)</f>
+        <f t="shared" si="4"/>
         <v>11.262484256565163</v>
       </c>
       <c r="I9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>6.1493031971015482</v>
       </c>
     </row>
@@ -8194,23 +11649,23 @@
         <v>9.4189421661863317</v>
       </c>
       <c r="D10">
-        <f>(A10/A9)</f>
+        <f t="shared" si="1"/>
         <v>1.2802442208630005</v>
       </c>
       <c r="E10">
-        <f>(B10/B9)</f>
+        <f t="shared" si="2"/>
         <v>1.4208323767426292</v>
       </c>
       <c r="G10">
-        <f>(G9*$D$35)</f>
+        <f t="shared" si="3"/>
         <v>2.5572966664886261</v>
       </c>
       <c r="H10">
-        <f>(H9*$E$35)</f>
+        <f t="shared" si="4"/>
         <v>17.475720074112608</v>
       </c>
       <c r="I10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>6.8336694381681484</v>
       </c>
     </row>
@@ -8226,23 +11681,23 @@
         <v>9.5730189428065593</v>
       </c>
       <c r="D11">
-        <f>(A11/A10)</f>
+        <f t="shared" si="1"/>
         <v>2.472475028710384</v>
       </c>
       <c r="E11">
-        <f>(B11/B10)</f>
+        <f t="shared" si="2"/>
         <v>2.5129202269052833</v>
       </c>
       <c r="G11">
-        <f>(G10*$D$35)</f>
+        <f t="shared" si="3"/>
         <v>3.5707046984020709</v>
       </c>
       <c r="H11">
-        <f>(H10*$E$35)</f>
+        <f t="shared" si="4"/>
         <v>27.116645417792014</v>
       </c>
       <c r="I11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>7.5941999432008496</v>
       </c>
     </row>
@@ -8258,23 +11713,23 @@
         <v>10.577801117256172</v>
       </c>
       <c r="D12">
-        <f>(A12/A11)</f>
+        <f t="shared" si="1"/>
         <v>1.6624298867846117</v>
       </c>
       <c r="E12">
-        <f>(B12/B11)</f>
+        <f t="shared" si="2"/>
         <v>1.8369181988304828</v>
       </c>
       <c r="G12">
-        <f>(G11*$D$35)</f>
+        <f t="shared" si="3"/>
         <v>4.985707059438397</v>
       </c>
       <c r="H12">
-        <f>(H11*$E$35)</f>
+        <f t="shared" si="4"/>
         <v>42.076232372450541</v>
       </c>
       <c r="I12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>8.4393711605651607</v>
       </c>
     </row>
@@ -8290,23 +11745,23 @@
         <v>10.812139350606378</v>
       </c>
       <c r="D13">
-        <f>(A13/A12)</f>
+        <f t="shared" si="1"/>
         <v>1.352596884109655</v>
       </c>
       <c r="E13">
-        <f>(B13/B12)</f>
+        <f t="shared" si="2"/>
         <v>1.3825620120926503</v>
       </c>
       <c r="G13">
-        <f>(G12*$D$35)</f>
+        <f t="shared" si="3"/>
         <v>6.9614479443393256</v>
       </c>
       <c r="H13">
-        <f>(H12*$E$35)</f>
+        <f t="shared" si="4"/>
         <v>65.288655856333833</v>
       </c>
       <c r="I13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>9.3786028967469406</v>
       </c>
     </row>
@@ -8322,23 +11777,23 @@
         <v>11.362506762224331</v>
       </c>
       <c r="D14">
-        <f>(A14/A13)</f>
+        <f t="shared" si="1"/>
         <v>1.9389131390853511</v>
       </c>
       <c r="E14">
-        <f>(B14/B13)</f>
+        <f t="shared" si="2"/>
         <v>2.0376091113723342</v>
       </c>
       <c r="G14">
-        <f>(G13*$D$35)</f>
+        <f t="shared" si="3"/>
         <v>9.7201373654723078</v>
       </c>
       <c r="H14">
-        <f>(H13*$E$35)</f>
+        <f t="shared" si="4"/>
         <v>101.30680299022548</v>
       </c>
       <c r="I14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>10.422363304255928</v>
       </c>
     </row>
@@ -8354,23 +11809,23 @@
         <v>11.96975640370681</v>
       </c>
       <c r="D15">
-        <f>(A15/A14)</f>
+        <f t="shared" si="1"/>
         <v>1.1574079689793735</v>
       </c>
       <c r="E15">
-        <f>(B15/B14)</f>
+        <f t="shared" si="2"/>
         <v>1.219263648269117</v>
       </c>
       <c r="G15">
-        <f>(G14*$D$35)</f>
+        <f t="shared" si="3"/>
         <v>13.572042936911975</v>
       </c>
       <c r="H15">
-        <f>(H14*$E$35)</f>
+        <f t="shared" si="4"/>
         <v>157.19527684386705</v>
       </c>
       <c r="I15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>11.582285553808706</v>
       </c>
     </row>
@@ -8386,23 +11841,23 @@
         <v>13.058428164889348</v>
       </c>
       <c r="D16">
-        <f>(A16/A15)</f>
+        <f t="shared" si="1"/>
         <v>1.1580273071602374</v>
       </c>
       <c r="E16">
-        <f>(B16/B15)</f>
+        <f t="shared" si="2"/>
         <v>1.2633520594328222</v>
       </c>
       <c r="G16">
-        <f>(G15*$D$35)</f>
+        <f t="shared" si="3"/>
         <v>18.95038542723638</v>
       </c>
       <c r="H16">
-        <f>(H15*$E$35)</f>
+        <f t="shared" si="4"/>
         <v>243.91604840599069</v>
       </c>
       <c r="I16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>12.871297491154092</v>
       </c>
     </row>
@@ -8418,23 +11873,23 @@
         <v>14.209034402404363</v>
       </c>
       <c r="D17">
-        <f>(A17/A16)</f>
+        <f t="shared" si="1"/>
         <v>1.1732445254213892</v>
       </c>
       <c r="E17">
-        <f>(B17/B16)</f>
+        <f t="shared" si="2"/>
         <v>1.2766216280890619</v>
       </c>
       <c r="G17">
-        <f>(G16*$D$35)</f>
+        <f t="shared" si="3"/>
         <v>26.460062756220712</v>
       </c>
       <c r="H17">
-        <f>(H16*$E$35)</f>
+        <f t="shared" si="4"/>
         <v>378.478538697359</v>
       </c>
       <c r="I17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>14.303765723623592</v>
       </c>
     </row>
@@ -8450,23 +11905,23 @@
         <v>15.436455955669357</v>
       </c>
       <c r="D18">
-        <f>(A18/A17)</f>
+        <f t="shared" si="1"/>
         <v>1.168733694799956</v>
       </c>
       <c r="E18">
-        <f>(B18/B17)</f>
+        <f t="shared" si="2"/>
         <v>1.2696926260262578</v>
       </c>
       <c r="G18">
-        <f>(G17*$D$35)</f>
+        <f t="shared" si="3"/>
         <v>36.945682384743044</v>
       </c>
       <c r="H18">
-        <f>(H17*$E$35)</f>
+        <f t="shared" si="4"/>
         <v>587.27584835278958</v>
       </c>
       <c r="I18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>15.895655742315073</v>
       </c>
     </row>
@@ -8482,23 +11937,23 @@
         <v>16.240626414430082</v>
       </c>
       <c r="D19">
-        <f>(A19/A18)</f>
+        <f t="shared" si="1"/>
         <v>1.0862715944661538</v>
       </c>
       <c r="E19">
-        <f>(B19/B18)</f>
+        <f t="shared" si="2"/>
         <v>1.1428614962525001</v>
       </c>
       <c r="G19">
-        <f>(G18*$D$35)</f>
+        <f t="shared" si="3"/>
         <v>51.586553646907262</v>
       </c>
       <c r="H19">
-        <f>(H18*$E$35)</f>
+        <f t="shared" si="4"/>
         <v>911.26150308425758</v>
       </c>
       <c r="I19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>17.664709864542189</v>
       </c>
     </row>
@@ -8514,219 +11969,219 @@
         <v>20.449214954774249</v>
       </c>
       <c r="D20">
-        <f>(A20/A19)</f>
+        <f t="shared" si="1"/>
         <v>1.0994108465132244</v>
       </c>
       <c r="E20">
-        <f>(B20/B19)</f>
+        <f t="shared" si="2"/>
         <v>1.3843116731004608</v>
       </c>
       <c r="G20">
-        <f>(G19*$D$35)</f>
+        <f t="shared" si="3"/>
         <v>72.029323736734909</v>
       </c>
       <c r="H20">
-        <f>(H19*$E$35)</f>
+        <f t="shared" si="4"/>
         <v>1413.9820824106873</v>
       </c>
       <c r="I20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>19.630644979796713</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="G21">
-        <f>(G20*$D$35)</f>
+        <f t="shared" si="3"/>
         <v>100.57317481379005</v>
       </c>
       <c r="H21">
-        <f>(H20*$E$35)</f>
+        <f t="shared" si="4"/>
         <v>2194.0412522766246</v>
       </c>
       <c r="I21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>21.815372303189832</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="G22">
-        <f>(G21*$D$35)</f>
+        <f t="shared" si="3"/>
         <v>140.42841119951467</v>
       </c>
       <c r="H22">
-        <f>(H21*$E$35)</f>
+        <f t="shared" si="4"/>
         <v>3404.4398981948475</v>
       </c>
       <c r="I22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>24.243241585621625</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="G23">
-        <f>(G22*$D$35)</f>
+        <f t="shared" si="3"/>
         <v>196.0775197614231</v>
       </c>
       <c r="H23">
-        <f>(H22*$E$35)</f>
+        <f t="shared" si="4"/>
         <v>5282.5857346093562</v>
       </c>
       <c r="I23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>26.941312502508858</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="G24">
-        <f>(G23*$D$35)</f>
+        <f t="shared" si="3"/>
         <v>273.77931166057471</v>
       </c>
       <c r="H24">
-        <f>(H23*$E$35)</f>
+        <f t="shared" si="4"/>
         <v>8196.8584783343795</v>
       </c>
       <c r="I24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>29.939656245818369</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="G25">
-        <f>(G24*$D$35)</f>
+        <f t="shared" si="3"/>
         <v>382.27284588533945</v>
       </c>
       <c r="H25">
-        <f>(H24*$E$35)</f>
+        <f t="shared" si="4"/>
         <v>12718.863883959424</v>
       </c>
       <c r="I25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>33.27169068078242</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="G26">
-        <f>(G25*$D$35)</f>
+        <f t="shared" si="3"/>
         <v>533.76030429373077</v>
       </c>
       <c r="H26">
-        <f>(H25*$E$35)</f>
+        <f t="shared" si="4"/>
         <v>19735.548555128811</v>
       </c>
       <c r="I26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>36.97455280276565</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="G27">
-        <f>(G26*$D$35)</f>
+        <f t="shared" si="3"/>
         <v>745.27936134179458</v>
       </c>
       <c r="H27">
-        <f>(H26*$E$35)</f>
+        <f t="shared" si="4"/>
         <v>30623.165742268862</v>
       </c>
       <c r="I27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>41.089512645479914</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="G28">
-        <f>(G27*$D$35)</f>
+        <f t="shared" si="3"/>
         <v>1040.619397834372</v>
       </c>
       <c r="H28">
-        <f>(H27*$E$35)</f>
+        <f t="shared" si="4"/>
         <v>47517.213796155789</v>
       </c>
       <c r="I28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>45.662433253736801</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="G29">
-        <f>(G28*$D$35)</f>
+        <f t="shared" si="3"/>
         <v>1452.9970737409758</v>
       </c>
       <c r="H29">
-        <f>(H28*$E$35)</f>
+        <f t="shared" si="4"/>
         <v>73731.293033268608</v>
       </c>
       <c r="I29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>50.744281847337433</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="G30">
-        <f>(G29*$D$35)</f>
+        <f t="shared" si="3"/>
         <v>2028.7921796320998</v>
       </c>
       <c r="H30">
-        <f>(H29*$E$35)</f>
+        <f t="shared" si="4"/>
         <v>114407.03564141905</v>
       </c>
       <c r="I30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>56.391697873246713</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="G31">
-        <f>(G30*$D$35)</f>
+        <f t="shared" si="3"/>
         <v>2832.7639349878832</v>
       </c>
       <c r="H31">
-        <f>(H30*$E$35)</f>
+        <f t="shared" si="4"/>
         <v>177522.58594394918</v>
       </c>
       <c r="I31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>62.667624277244443</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="G32">
-        <f>(G31*$D$35)</f>
+        <f t="shared" si="3"/>
         <v>3955.3344063181494</v>
       </c>
       <c r="H32">
-        <f>(H31*$E$35)</f>
+        <f t="shared" si="4"/>
         <v>275457.43444485887</v>
       </c>
       <c r="I32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>69.642009030854695</v>
       </c>
     </row>
     <row r="33" spans="4:9" x14ac:dyDescent="0.3">
       <c r="G33">
-        <f>(G32*$D$35)</f>
+        <f t="shared" si="3"/>
         <v>5522.758205360683</v>
       </c>
       <c r="H33">
-        <f>(H32*$E$35)</f>
+        <f t="shared" si="4"/>
         <v>427420.53236482822</v>
       </c>
       <c r="I33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>77.39258473238084</v>
       </c>
     </row>
     <row r="34" spans="4:9" x14ac:dyDescent="0.3">
       <c r="G34">
-        <f>(G33*$D$35)</f>
+        <f t="shared" si="3"/>
         <v>7711.3222452588243</v>
       </c>
       <c r="H34">
-        <f>(H33*$E$35)</f>
+        <f t="shared" si="4"/>
         <v>663217.93730204715</v>
       </c>
       <c r="I34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>86.005734971044092</v>
       </c>
     </row>
@@ -8766,7 +12221,7 @@
     <col min="8" max="8" width="19.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10624,14 +14079,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="P38" sqref="P38"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.77734375" customWidth="1"/>
     <col min="4" max="4" width="8.77734375" customWidth="1"/>
+    <col min="5" max="5" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
@@ -10874,6 +14332,11 @@
         <v>1.6622276029055691</v>
       </c>
     </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H13" t="s">
+        <v>21</v>
+      </c>
+    </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>10</v>
@@ -10884,18 +14347,22 @@
       <c r="C14">
         <v>32</v>
       </c>
-      <c r="D14">
-        <f>(C14*2/(A14*(A14-1)))</f>
+      <c r="D14" s="2">
+        <f t="shared" ref="D14:D39" si="4">(C14*2/(A14*(A14-1)))</f>
         <v>0.71111111111111114</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="2">
         <v>1.0001659393310499E-3</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="3">
         <v>1.6000747680664E-2</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="3">
         <v>1.6000986099243102E-2</v>
+      </c>
+      <c r="H14" s="3">
+        <f>G14/F14</f>
+        <v>1.0000149004648946</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -10908,18 +14375,22 @@
       <c r="C15">
         <v>109</v>
       </c>
-      <c r="D15">
-        <f>(C15*2/(A15*(A15-1)))</f>
+      <c r="D15" s="2">
+        <f t="shared" si="4"/>
         <v>0.5736842105263158</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="2">
         <v>3.0000209808349601E-3</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="3">
         <v>8.7005376815795898E-2</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="3">
         <v>0.14600801467895499</v>
+      </c>
+      <c r="H15" s="3">
+        <f>G15/F15</f>
+        <v>1.6781493284958351</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -10932,21 +14403,25 @@
       <c r="C16">
         <v>127</v>
       </c>
-      <c r="D16">
-        <f>(C16*2/(A16*(A16-1)))</f>
+      <c r="D16" s="2">
+        <f t="shared" si="4"/>
         <v>0.29195402298850576</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="2">
         <v>3.9999485015869097E-3</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="3">
         <v>0.177010297775268</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="3">
         <v>0.52002954483032204</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H16" s="3">
+        <f t="shared" ref="H16:H35" si="5">G16/F16</f>
+        <v>2.9378491046354305</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>40</v>
       </c>
@@ -10956,21 +14431,25 @@
       <c r="C17">
         <v>230</v>
       </c>
-      <c r="D17">
-        <f>(C17*2/(A17*(A17-1)))</f>
+      <c r="D17" s="2">
+        <f t="shared" si="4"/>
         <v>0.29487179487179488</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="2">
         <v>8.0006122589111293E-3</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="3">
         <v>0.36502099037170399</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="3">
         <v>1.2400708198547301</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H17" s="3">
+        <f t="shared" si="5"/>
+        <v>3.3972589318547284</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>50</v>
       </c>
@@ -10980,21 +14459,25 @@
       <c r="C18">
         <v>264</v>
       </c>
-      <c r="D18">
-        <f>(C18*2/(A18*(A18-1)))</f>
+      <c r="D18" s="2">
+        <f t="shared" si="4"/>
         <v>0.21551020408163266</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="2">
         <v>1.10008716583251E-2</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="3">
         <v>0.448025703430175</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="3">
         <v>1.9151093959808301</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H18" s="3">
+        <f t="shared" si="5"/>
+        <v>4.274552511872348</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>60</v>
       </c>
@@ -11004,21 +14487,25 @@
       <c r="C19">
         <v>349</v>
       </c>
-      <c r="D19">
-        <f>(C19*2/(A19*(A19-1)))</f>
+      <c r="D19" s="2">
+        <f t="shared" si="4"/>
         <v>0.19717514124293786</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="2">
         <v>1.30009651184082E-2</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="3">
         <v>0.85604882240295399</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="3">
         <v>3.7962172031402499</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H19" s="3">
+        <f t="shared" si="5"/>
+        <v>4.4345802526591385</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>70</v>
       </c>
@@ -11028,21 +14515,25 @@
       <c r="C20">
         <v>472</v>
       </c>
-      <c r="D20">
-        <f>(C20*2/(A20*(A20-1)))</f>
+      <c r="D20" s="2">
+        <f t="shared" si="4"/>
         <v>0.19544513457556936</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="2">
         <v>1.5001058578491201E-2</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="3">
         <v>1.4320816993713299</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="3">
         <v>7.2134125232696498</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H20" s="3">
+        <f t="shared" si="5"/>
+        <v>5.0370118733004325</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>80</v>
       </c>
@@ -11052,21 +14543,25 @@
       <c r="C21">
         <v>701</v>
       </c>
-      <c r="D21">
-        <f>(C21*2/(A21*(A21-1)))</f>
+      <c r="D21" s="2">
+        <f t="shared" si="4"/>
         <v>0.22183544303797467</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="2">
         <v>2.2001266479492101E-2</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="3">
         <v>2.17612433433532</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="3">
         <v>14.244814872741699</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H21" s="3">
+        <f t="shared" si="5"/>
+        <v>6.5459563352995014</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>90</v>
       </c>
@@ -11076,21 +14571,25 @@
       <c r="C22">
         <v>811</v>
       </c>
-      <c r="D22">
-        <f>(C22*2/(A22*(A22-1)))</f>
+      <c r="D22" s="2">
+        <f t="shared" si="4"/>
         <v>0.20249687890137327</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="2">
         <v>4.7002792358398403E-2</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="3">
         <v>3.0961771011352499</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="3">
         <v>23.317333698272702</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H22" s="3">
+        <f t="shared" si="5"/>
+        <v>7.5310077352239073</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>100</v>
       </c>
@@ -11100,21 +14599,25 @@
       <c r="C23">
         <v>944</v>
       </c>
-      <c r="D23">
-        <f>(C23*2/(A23*(A23-1)))</f>
+      <c r="D23" s="2">
+        <f t="shared" si="4"/>
         <v>0.19070707070707071</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="2">
         <v>2.90017127990722E-2</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="3">
         <v>3.6042060852050701</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="3">
         <v>30.588749647140499</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H23" s="3">
+        <f t="shared" si="5"/>
+        <v>8.4869591038937706</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>110</v>
       </c>
@@ -11124,21 +14627,25 @@
       <c r="C24">
         <v>1201</v>
       </c>
-      <c r="D24">
-        <f>(C24*2/(A24*(A24-1)))</f>
+      <c r="D24" s="2">
+        <f t="shared" si="4"/>
         <v>0.20033361134278566</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="2">
         <v>3.5001754760742097E-2</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="3">
         <v>4.6142640113830504</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="3">
         <v>43.461485862731898</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H24" s="3">
+        <f t="shared" si="5"/>
+        <v>9.4189421661863317</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>120</v>
       </c>
@@ -11148,21 +14655,25 @@
       <c r="C25">
         <v>2975</v>
       </c>
-      <c r="D25">
-        <f>(C25*2/(A25*(A25-1)))</f>
+      <c r="D25" s="2">
+        <f t="shared" si="4"/>
         <v>0.41666666666666669</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="2">
         <v>0.102005720138549</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="3">
         <v>11.408652544021599</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="3">
         <v>109.215246915817</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H25" s="3">
+        <f t="shared" si="5"/>
+        <v>9.5730189428065593</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>130</v>
       </c>
@@ -11172,21 +14683,25 @@
       <c r="C26">
         <v>4524</v>
       </c>
-      <c r="D26">
-        <f>(C26*2/(A26*(A26-1)))</f>
+      <c r="D26" s="2">
+        <f t="shared" si="4"/>
         <v>0.53953488372093028</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="2">
         <v>0.15600895881652799</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="3">
         <v>18.966084957122799</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="3">
         <v>200.61947464942901</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H26" s="3">
+        <f t="shared" si="5"/>
+        <v>10.577801117256172</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>140</v>
       </c>
@@ -11196,21 +14711,25 @@
       <c r="C27">
         <v>5380</v>
       </c>
-      <c r="D27">
-        <f>(C27*2/(A27*(A27-1)))</f>
+      <c r="D27" s="2">
+        <f t="shared" si="4"/>
         <v>0.55292908530318607</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="2">
         <v>0.15700888633728</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="3">
         <v>25.653467416763299</v>
       </c>
-      <c r="G27">
+      <c r="G27" s="3">
         <v>277.368864536285</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H27" s="3">
+        <f t="shared" si="5"/>
+        <v>10.812139350606378</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>150</v>
       </c>
@@ -11220,21 +14739,25 @@
       <c r="C28">
         <v>10530</v>
       </c>
-      <c r="D28">
-        <f>(C28*2/(A28*(A28-1)))</f>
+      <c r="D28" s="2">
+        <f t="shared" si="4"/>
         <v>0.94228187919463091</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="2">
         <v>0.28301620483398399</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="3">
         <v>49.739845037460299</v>
       </c>
-      <c r="G28">
+      <c r="G28" s="3">
         <v>565.16932559013298</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H28" s="3">
+        <f t="shared" si="5"/>
+        <v>11.362506762224331</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>160</v>
       </c>
@@ -11244,21 +14767,25 @@
       <c r="C29">
         <v>11052</v>
       </c>
-      <c r="D29">
-        <f>(C29*2/(A29*(A29-1)))</f>
+      <c r="D29" s="2">
+        <f t="shared" si="4"/>
         <v>0.86886792452830186</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="2">
         <v>0.302017211914062</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="3">
         <v>57.569293022155698</v>
       </c>
-      <c r="G29">
+      <c r="G29" s="3">
         <v>689.09041380882195</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H29" s="3">
+        <f t="shared" si="5"/>
+        <v>11.96975640370681</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>170</v>
       </c>
@@ -11268,21 +14795,25 @@
       <c r="C30">
         <v>11836</v>
       </c>
-      <c r="D30">
-        <f>(C30*2/(A30*(A30-1)))</f>
+      <c r="D30" s="2">
+        <f t="shared" si="4"/>
         <v>0.82394709363035157</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="2">
         <v>0.36002063751220698</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="3">
         <v>66.666813373565603</v>
       </c>
-      <c r="G30">
+      <c r="G30" s="3">
         <v>870.56379342079094</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H30" s="3">
+        <f t="shared" si="5"/>
+        <v>13.058428164889348</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>180</v>
       </c>
@@ -11292,21 +14823,25 @@
       <c r="C31">
         <v>12824</v>
       </c>
-      <c r="D31">
-        <f>(C31*2/(A31*(A31-1)))</f>
+      <c r="D31" s="2">
+        <f t="shared" si="4"/>
         <v>0.7960273122284296</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="2">
         <v>0.39202260971069303</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="3">
         <v>78.216473817825303</v>
       </c>
-      <c r="G31">
+      <c r="G31" s="3">
         <v>1111.3805673122399</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H31" s="3">
+        <f t="shared" si="5"/>
+        <v>14.209034402404363</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>190</v>
       </c>
@@ -11316,21 +14851,25 @@
       <c r="C32">
         <v>13913</v>
       </c>
-      <c r="D32">
-        <f>(C32*2/(A32*(A32-1)))</f>
+      <c r="D32" s="2">
+        <f t="shared" si="4"/>
         <v>0.77488164856585906</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="2">
         <v>0.39602279663085899</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="3">
         <v>91.414228439330998</v>
       </c>
-      <c r="G32">
+      <c r="G32" s="3">
         <v>1411.1117110252301</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H32" s="3">
+        <f t="shared" si="5"/>
+        <v>15.436455955669357</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>200</v>
       </c>
@@ -11340,21 +14879,25 @@
       <c r="C33">
         <v>14038</v>
       </c>
-      <c r="D33">
-        <f>(C33*2/(A33*(A33-1)))</f>
+      <c r="D33" s="2">
+        <f t="shared" si="4"/>
         <v>0.70542713567839199</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="2">
         <v>0.432024955749511</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="3">
         <v>99.300679683685303</v>
       </c>
-      <c r="G33">
+      <c r="G33" s="3">
         <v>1612.7052414417201</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H33" s="3">
+        <f t="shared" si="5"/>
+        <v>16.240626414430082</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>210</v>
       </c>
@@ -11364,21 +14907,25 @@
       <c r="C34">
         <v>14400</v>
       </c>
-      <c r="D34">
-        <f>(C34*2/(A34*(A34-1)))</f>
+      <c r="D34" s="2">
+        <f t="shared" si="4"/>
         <v>0.65618591934381409</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="2">
         <v>0.45202565193176197</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="3">
         <v>109.172244310379</v>
       </c>
-      <c r="G34">
+      <c r="G34" s="3">
         <v>2232.4866909980701</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H34" s="3">
+        <f t="shared" si="5"/>
+        <v>20.449214954774249</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>250</v>
       </c>
@@ -11388,21 +14935,25 @@
       <c r="C35">
         <v>24890</v>
       </c>
-      <c r="D35">
-        <f>(C35*2/(A35*(A35-1)))</f>
+      <c r="D35" s="2">
+        <f t="shared" si="4"/>
         <v>0.79967871485943776</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="2">
         <v>0.86004900932312001</v>
       </c>
-      <c r="F35">
+      <c r="F35" s="3">
         <v>227.558015584945</v>
       </c>
-      <c r="G35">
+      <c r="G35" s="3">
         <v>5668.2402048110898</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H35" s="3">
+        <f t="shared" si="5"/>
+        <v>24.908989429533833</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>350</v>
       </c>
@@ -11412,21 +14963,22 @@
       <c r="C36">
         <v>48251</v>
       </c>
-      <c r="D36">
-        <f>(C36*2/(A36*(A36-1)))</f>
+      <c r="D36" s="2">
+        <f t="shared" si="4"/>
         <v>0.79002865329512895</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="2">
         <v>1.59309101104736</v>
       </c>
-      <c r="F36">
+      <c r="F36" s="3">
         <v>613.60809612274102</v>
       </c>
-      <c r="G36">
+      <c r="G36" s="3">
         <v>-1</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H36" s="3"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>500</v>
       </c>
@@ -11436,21 +14988,22 @@
       <c r="C37">
         <v>76735</v>
       </c>
-      <c r="D37">
-        <f>(C37*2/(A37*(A37-1)))</f>
+      <c r="D37" s="2">
+        <f t="shared" si="4"/>
         <v>0.61511022044088182</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="2">
         <v>2.7821590900421098</v>
       </c>
-      <c r="F37">
+      <c r="F37" s="3">
         <v>1526.95933723449</v>
       </c>
-      <c r="G37">
+      <c r="G37" s="3">
         <v>-1</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H37" s="3"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>650</v>
       </c>
@@ -11460,21 +15013,22 @@
       <c r="C38">
         <v>152491</v>
       </c>
-      <c r="D38">
-        <f>(C38*2/(A38*(A38-1)))</f>
+      <c r="D38" s="2">
+        <f t="shared" si="4"/>
         <v>0.72296313855635885</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="2">
         <v>5.8383338451385498</v>
       </c>
-      <c r="F38">
+      <c r="F38" s="3">
         <v>4280.6598398685401</v>
       </c>
-      <c r="G38">
+      <c r="G38" s="3">
         <v>-1</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H38" s="3"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>800</v>
       </c>
@@ -11484,18 +15038,86 @@
       <c r="C39">
         <v>169022</v>
       </c>
-      <c r="D39">
-        <f>(C39*2/(A39*(A39-1)))</f>
+      <c r="D39" s="2">
+        <f t="shared" si="4"/>
         <v>0.52885481852315397</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="2">
         <v>6.9723985195159903</v>
       </c>
-      <c r="F39">
+      <c r="F39" s="3">
         <v>6266.4873266220002</v>
       </c>
-      <c r="G39">
+      <c r="G39" s="3">
         <v>-1</v>
+      </c>
+      <c r="H39" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="28.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
